--- a/Abnormal cellular phenotype_v1.0.xlsx
+++ b/Abnormal cellular phenotype_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doieisuke/Desktop/BLAH8_HPO_まとめPhenoAb_hpo 2/Done/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B9C68E-3478-6F4E-820A-C9020DB9E286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FB5175-99D5-9044-AA10-84B682044993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="2740" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="65480" yWindow="2740" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="388">
   <si>
     <t>orig_entry</t>
   </si>
@@ -599,6 +599,579 @@
   </si>
   <si>
     <t>Absent Birbeck granules in Langerhans cells</t>
+  </si>
+  <si>
+    <t>FasLを介したアポトーシスの減少</t>
+  </si>
+  <si>
+    <t>セントロメアヘテロクロマチンの早期分離</t>
+  </si>
+  <si>
+    <t>骨髄の染色体研究におけるエンドポリオディティ</t>
+  </si>
+  <si>
+    <t>活性酸素産生の増加</t>
+  </si>
+  <si>
+    <t>好中球における活性酸素種産生の減少</t>
+  </si>
+  <si>
+    <t>染色体早期凝縮率の増加</t>
+  </si>
+  <si>
+    <t>N-アセチルグルコサミン-1-リン転移酵素の欠損</t>
+  </si>
+  <si>
+    <t>細胞内の顆粒状親水性沈着物（GROD）</t>
+  </si>
+  <si>
+    <t>血清酸性フォスファターゼ上昇</t>
+  </si>
+  <si>
+    <t>脂肪肉芽腫症</t>
+  </si>
+  <si>
+    <t>T細胞機能の欠如</t>
+  </si>
+  <si>
+    <t>T細胞増殖不全</t>
+  </si>
+  <si>
+    <t>抗原特異的T細胞増殖の低下</t>
+  </si>
+  <si>
+    <t>TCR活性化に伴うCD25アップレギュレーションの減少</t>
+  </si>
+  <si>
+    <t>TCR活性化に伴うCD69アップレギュレーションの減少</t>
+  </si>
+  <si>
+    <t>T細胞活性化の低下</t>
+  </si>
+  <si>
+    <t>皮膚アレルギー</t>
+  </si>
+  <si>
+    <t>遅延型過敏症の減少</t>
+  </si>
+  <si>
+    <t>オリゴクローナルT細胞増殖</t>
+  </si>
+  <si>
+    <t>抗CD3に対するリンパ球増殖の低下</t>
+  </si>
+  <si>
+    <t>B細胞増殖異常</t>
+  </si>
+  <si>
+    <t>ナチュラルキラー細胞活性の低下</t>
+  </si>
+  <si>
+    <t>CD95誘導性リンパ球アポトーシスの減少</t>
+  </si>
+  <si>
+    <t>リンパ球アポトーシスの増加</t>
+  </si>
+  <si>
+    <t>一過性の循環IgAの減少</t>
+  </si>
+  <si>
+    <t>循環総IgAの減少</t>
+  </si>
+  <si>
+    <t>部分的IgA欠乏症</t>
+  </si>
+  <si>
+    <t>循環IgAのポリクローナル上昇</t>
+  </si>
+  <si>
+    <t>単クローン性循環IgA上昇</t>
+  </si>
+  <si>
+    <t>オリゴクローン性循環IgA上昇</t>
+  </si>
+  <si>
+    <t>特異的肺炎球菌抗体レベルの低下</t>
+  </si>
+  <si>
+    <t>特異的抗体反応の欠如</t>
+  </si>
+  <si>
+    <t>B型肝炎ワクチンに対する特異的抗体反応の完全またはほぼ完全な欠如</t>
+  </si>
+  <si>
+    <t>破傷風ワクチンに対する特異的抗体反応の完全またはほぼ完全な消失</t>
+  </si>
+  <si>
+    <t>B型肝炎ワクチンに対する特異的抗体反応の部分的消失</t>
+  </si>
+  <si>
+    <t>破傷風ワクチンに対する特異的抗体反応の部分的消失</t>
+  </si>
+  <si>
+    <t>インフルエンザ菌b型（Hib）ワクチンに対する特異的抗体反応の完全またはほぼ完全な消失</t>
+  </si>
+  <si>
+    <t>インフルエンザ菌b型（Hib）ワクチンに対する特異的抗体反応の部分的消失</t>
+  </si>
+  <si>
+    <t>髄膜炎菌ワクチンに対する特異的抗体反応の部分的消失</t>
+  </si>
+  <si>
+    <t>髄膜炎菌ワクチンに対する特異的抗体反応の完全またはほぼ完全な消失</t>
+  </si>
+  <si>
+    <t>非抱合型肺炎球菌ワクチンに対する特異的抗体反応の部分的消失</t>
+  </si>
+  <si>
+    <t>非抱合型肺炎球菌ワクチンに対する特異的抗体反応の完全またはほぼ完全な消失</t>
+  </si>
+  <si>
+    <t>特異的抗多糖抗体レベルの低下</t>
+  </si>
+  <si>
+    <t>感染に対する特異的抗体反応の低下</t>
+  </si>
+  <si>
+    <t>イソヘマグルチニン値の消失</t>
+  </si>
+  <si>
+    <t>イソヘマグルチニン値の低下</t>
+  </si>
+  <si>
+    <t>循環総IgMの減少</t>
+  </si>
+  <si>
+    <t>アガマグロブリン血症</t>
+  </si>
+  <si>
+    <t>乳児期の一過性低ガンマグロブリン血症</t>
+  </si>
+  <si>
+    <t>一過性の循環IgE低下</t>
+  </si>
+  <si>
+    <t>慢性循環IgE低下</t>
+  </si>
+  <si>
+    <t>慢性循環性IgE欠乏</t>
+  </si>
+  <si>
+    <t>一過性の循環IgD減少</t>
+  </si>
+  <si>
+    <t>慢性循環性IgD減少</t>
+  </si>
+  <si>
+    <t>慢性循環性IgD欠乏</t>
+  </si>
+  <si>
+    <t>ガンマグロブリン血症</t>
+  </si>
+  <si>
+    <t>汎低ガンマグロブリン血症</t>
+  </si>
+  <si>
+    <t>一過性の循環IgG4減少</t>
+  </si>
+  <si>
+    <t>慢性（に近い）循環IgG4欠乏</t>
+  </si>
+  <si>
+    <t>慢性部分的循環IgG4減少</t>
+  </si>
+  <si>
+    <t>一過性の循環IgG2減少</t>
+  </si>
+  <si>
+    <t>慢性（に近い）循環IgG2欠乏</t>
+  </si>
+  <si>
+    <t>慢性部分循環性IgG2減少</t>
+  </si>
+  <si>
+    <t>一過性の循環性IgG3減少</t>
+  </si>
+  <si>
+    <t>慢性（に近い）循環IgG3欠乏</t>
+  </si>
+  <si>
+    <t>慢性部分循環性IgG3減少</t>
+  </si>
+  <si>
+    <t>一過性の循環IgG1減少</t>
+  </si>
+  <si>
+    <t>慢性部分循環性IgG1減少</t>
+  </si>
+  <si>
+    <t>慢性（に近い）循環IgG1欠乏</t>
+  </si>
+  <si>
+    <t>循環総IgGの一過性の減少</t>
+  </si>
+  <si>
+    <t>慢性循環総IgG減少</t>
+  </si>
+  <si>
+    <t>慢性循環総IgG欠乏</t>
+  </si>
+  <si>
+    <t>循環IgMのオリゴクローナル上昇</t>
+  </si>
+  <si>
+    <t>単クローン性免疫グロブリンM蛋白血症</t>
+  </si>
+  <si>
+    <t>ポリクローナルIgM上昇</t>
+  </si>
+  <si>
+    <t>循環沈降蛋白増加</t>
+  </si>
+  <si>
+    <t>循環中IgGのポリクローナル上昇</t>
+  </si>
+  <si>
+    <t>インタクトIgGの単クローン性上昇</t>
+  </si>
+  <si>
+    <t>IgGラムダ鎖の単クローン性上昇</t>
+  </si>
+  <si>
+    <t>IgGκ鎖の単クローン性上昇</t>
+  </si>
+  <si>
+    <t>IgG重鎖の単クローン性上昇</t>
+  </si>
+  <si>
+    <t>循環IgGのオリゴクローン性上昇</t>
+  </si>
+  <si>
+    <t>循環IgG1レベルの上昇</t>
+  </si>
+  <si>
+    <t>循環中IgG4レベルの上昇</t>
+  </si>
+  <si>
+    <t>循環中IgG2レベルの上昇</t>
+  </si>
+  <si>
+    <t>循環中IgG3レベルの上昇</t>
+  </si>
+  <si>
+    <t>循環IgEのオリゴクローナル上昇</t>
+  </si>
+  <si>
+    <t>循環中IgEのポリクローナル上昇</t>
+  </si>
+  <si>
+    <t>循環中IgEの単クローン性上昇</t>
+  </si>
+  <si>
+    <t>抗細菌IgE抗体レベルの上昇</t>
+  </si>
+  <si>
+    <t>抗薬物IgE抗体レベルの上昇</t>
+  </si>
+  <si>
+    <t>抗動物ふけIgE抗体レベルの上昇</t>
+  </si>
+  <si>
+    <t>抗植物性IgE抗体レベルの上昇</t>
+  </si>
+  <si>
+    <t>抗羽毛IgE抗体値の上昇</t>
+  </si>
+  <si>
+    <t>抗寄生虫IgE抗体価上昇</t>
+  </si>
+  <si>
+    <t>抗ベノムIgE抗体価上昇</t>
+  </si>
+  <si>
+    <t>抗α-gal IgE抗体価上昇</t>
+  </si>
+  <si>
+    <t>抗植物性食物アレルゲンIgE抗体価上昇</t>
+  </si>
+  <si>
+    <t>抗グルテンIgE抗体価上昇</t>
+  </si>
+  <si>
+    <t>抗ナッツ食品IgE抗体価上昇</t>
+  </si>
+  <si>
+    <t>抗卵IgE抗体値の上昇</t>
+  </si>
+  <si>
+    <t>抗肉類アレルゲンIgE抗体値の上昇</t>
+  </si>
+  <si>
+    <t>抗乳製品IgE抗体値の上昇</t>
+  </si>
+  <si>
+    <t>抗魚介類IgE抗体値の上昇</t>
+  </si>
+  <si>
+    <t>抗真菌IgE抗体レベル上昇</t>
+  </si>
+  <si>
+    <t>抗ハウスダスト・ダニIgE抗体価上昇</t>
+  </si>
+  <si>
+    <t>B型肝炎ウイルス抗体価上昇</t>
+  </si>
+  <si>
+    <t>C型肝炎ウイルス抗体価上昇</t>
+  </si>
+  <si>
+    <t>A型肝炎ウイルス抗体価上昇</t>
+  </si>
+  <si>
+    <t>軽鎖型パラ蛋白血症</t>
+  </si>
+  <si>
+    <t>IgG重鎖パラ蛋白血症</t>
+  </si>
+  <si>
+    <t>IgM重鎖パラ蛋白血症</t>
+  </si>
+  <si>
+    <t>IgA重鎖パラ蛋白血症</t>
+  </si>
+  <si>
+    <t>全免疫グロブリンパラ蛋白血症</t>
+  </si>
+  <si>
+    <t>循環IgD値の上昇</t>
+  </si>
+  <si>
+    <t>メモリーB細胞の生成障害</t>
+  </si>
+  <si>
+    <t>体液中の免疫グロブリン濃度の上昇</t>
+  </si>
+  <si>
+    <t>分泌性IgA欠乏症</t>
+  </si>
+  <si>
+    <t>B細胞分化不全</t>
+  </si>
+  <si>
+    <t>Igクラススイッチ組換え障害</t>
+  </si>
+  <si>
+    <t>細胞周期のG2期の延長</t>
+  </si>
+  <si>
+    <t>線維芽細胞メタクロマシア</t>
+  </si>
+  <si>
+    <t>曲線状自家蛍光性リポ色素貯蔵物質の軸内蓄積</t>
+  </si>
+  <si>
+    <t>自家蛍光性リポ色素貯蔵物質のフィンガープリント細胞内蓄積</t>
+  </si>
+  <si>
+    <t>自家蛍光性リポ色素貯蔵物質の直線状細胞内蓄積</t>
+  </si>
+  <si>
+    <t>架橋剤による染色体切断</t>
+  </si>
+  <si>
+    <t>電離放射線による染色体切断</t>
+  </si>
+  <si>
+    <t>Xq28の葉酸依存性脆弱部位</t>
+  </si>
+  <si>
+    <t>自然発生的姉妹染色分体交換に対する感受性の増加</t>
+  </si>
+  <si>
+    <t>電離放射線に対する感受性増加</t>
+  </si>
+  <si>
+    <t>紫外線に対する細胞感受性の増加</t>
+  </si>
+  <si>
+    <t>細胞内ナトリウムの増加</t>
+  </si>
+  <si>
+    <t>UV誘発DNA中のピリミジン二量体の除去不全</t>
+  </si>
+  <si>
+    <t>マイトマイシンCに対する細胞過敏症</t>
+  </si>
+  <si>
+    <t>紫外線損傷後のDNA修復不全</t>
+  </si>
+  <si>
+    <t>鎖間架橋修復不全</t>
+  </si>
+  <si>
+    <t>ジエポキシブタンに対する細胞性過敏症</t>
+  </si>
+  <si>
+    <t>白血球シスチン上昇</t>
+  </si>
+  <si>
+    <t>卵子死の増加</t>
+  </si>
+  <si>
+    <t>Dol-PP-GlcNAc2Man5の細胞内蓄積</t>
+  </si>
+  <si>
+    <t>シトクロムb(-245)の欠乏または非存在</t>
+  </si>
+  <si>
+    <t>ミトコンドリア呼吸鎖活性の上昇</t>
+  </si>
+  <si>
+    <t>ミトコンドリア複合体II活性低下</t>
+  </si>
+  <si>
+    <t>ミトコンドリア複合体III活性低下</t>
+  </si>
+  <si>
+    <t>ミトコンドリア複合体Iの活性低下</t>
+  </si>
+  <si>
+    <t>ミトコンドリア複合体IV活性低下</t>
+  </si>
+  <si>
+    <t>ミトコンドリアATP合成酵素複合体の活性低下</t>
+  </si>
+  <si>
+    <t>3-ヒドロキシアシル-CoAデヒドロゲナーゼレベルの低下</t>
+  </si>
+  <si>
+    <t>ミトコンドリアプロピオニル-CoAカルボキシラーゼ欠損</t>
+  </si>
+  <si>
+    <t>筋肉組織のミトコンドリア異常</t>
+  </si>
+  <si>
+    <t>ミトコンドリア枯渇</t>
+  </si>
+  <si>
+    <t>ミトコンドリア呼吸鎖欠損</t>
+  </si>
+  <si>
+    <t>電子伝達フラボプロテイン-ユビキノン酸化還元酵素欠損症</t>
+  </si>
+  <si>
+    <t>ミトコンドリア内鉄沈着異常</t>
+  </si>
+  <si>
+    <t>血漿総カルニチンの減少</t>
+  </si>
+  <si>
+    <t>血漿遊離カルニチンの減少</t>
+  </si>
+  <si>
+    <t>ミトコンドリアリンゴ酸酵素減少</t>
+  </si>
+  <si>
+    <t>ピルビン酸デヒドロゲナーゼ複合体活性低下</t>
+  </si>
+  <si>
+    <t>ミトコンドリアのリジン輸送障害</t>
+  </si>
+  <si>
+    <t>ミトコンドリア数減少</t>
+  </si>
+  <si>
+    <t>ミトコンドリア数の増加</t>
+  </si>
+  <si>
+    <t>ミトコンドリア膨潤</t>
+  </si>
+  <si>
+    <t>ミトコンドリア肥大</t>
+  </si>
+  <si>
+    <t>顆粒球CD16レベルの減少</t>
+  </si>
+  <si>
+    <t>顆粒球CD55レベルの減少</t>
+  </si>
+  <si>
+    <t>顆粒球CD59レベルの減少</t>
+  </si>
+  <si>
+    <t>顆粒球CD18レベルの低下</t>
+  </si>
+  <si>
+    <t>細胞表面のGPIアンカータンパク質の発現低下</t>
+  </si>
+  <si>
+    <t>線維芽細胞CD59レベルの減少</t>
+  </si>
+  <si>
+    <t>線維芽細胞CD55レベルの減少</t>
+  </si>
+  <si>
+    <t>線維芽細胞CD16レベルの減少</t>
+  </si>
+  <si>
+    <t>真性上衣ロゼット</t>
+  </si>
+  <si>
+    <t>神経細胞性ロゼット</t>
+  </si>
+  <si>
+    <t>血管周囲仮性ロゼット</t>
+  </si>
+  <si>
+    <t>ホーマー・ライト・ロゼット</t>
+  </si>
+  <si>
+    <t>フレクスナー・ウィンターシュタイナー・ローゼット</t>
+  </si>
+  <si>
+    <t>短いテロメア長</t>
+  </si>
+  <si>
+    <t>ゼブラ小体</t>
+  </si>
+  <si>
+    <t>薄い透明帯</t>
+  </si>
+  <si>
+    <t>心筋細胞肥大</t>
+  </si>
+  <si>
+    <t>心筋細胞プラコグロビン染色異常</t>
+  </si>
+  <si>
+    <t>核内心筋細胞ミトコンドリア</t>
+  </si>
+  <si>
+    <t>核内心筋細胞空胞化</t>
+  </si>
+  <si>
+    <t>心筋細胞変性</t>
+  </si>
+  <si>
+    <t>心筋肉質の乱れ</t>
+  </si>
+  <si>
+    <t>心筋細胞ジストロフィン染色異常</t>
+  </si>
+  <si>
+    <t>心筋細胞コネキシン43染色異常</t>
+  </si>
+  <si>
+    <t>心筋細胞封入体</t>
+  </si>
+  <si>
+    <t>心筋細胞ミトコンドリア増殖</t>
+  </si>
+  <si>
+    <t>頬粘膜細胞における細胞接合タンパク質の異常分布</t>
+  </si>
+  <si>
+    <t>ランゲルハンス細胞におけるBirbeck顆粒の欠損</t>
   </si>
   <si>
     <t>Disease name</t>
@@ -1569,10 +2142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F192"/>
+  <dimension ref="A1:G192"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="B1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1583,7 +2156,7 @@
     <col min="7" max="7" width="77.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1591,19 +2164,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>193</v>
+        <v>384</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>194</v>
+        <v>385</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>195</v>
+        <v>386</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>4000057</v>
       </c>
@@ -1613,8 +2186,11 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>3616</v>
       </c>
@@ -1624,8 +2200,11 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3352</v>
       </c>
@@ -1635,8 +2214,11 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>25464</v>
       </c>
@@ -1646,8 +2228,11 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>25632</v>
       </c>
@@ -1657,8 +2242,11 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>3451</v>
       </c>
@@ -1668,8 +2256,11 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>3264</v>
       </c>
@@ -1679,8 +2270,11 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>3657</v>
       </c>
@@ -1690,8 +2284,11 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>3148</v>
       </c>
@@ -1701,8 +2298,11 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>40139</v>
       </c>
@@ -1712,8 +2312,11 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>5354</v>
       </c>
@@ -1723,8 +2326,11 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>30253</v>
       </c>
@@ -1734,8 +2340,11 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>31402</v>
       </c>
@@ -1745,8 +2354,11 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>31270</v>
       </c>
@@ -1756,8 +2368,11 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>31268</v>
       </c>
@@ -1767,8 +2382,11 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>5419</v>
       </c>
@@ -1778,8 +2396,11 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>2965</v>
       </c>
@@ -1789,8 +2410,11 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>2972</v>
       </c>
@@ -1800,8 +2424,11 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>31430</v>
       </c>
@@ -1811,8 +2438,11 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>31382</v>
       </c>
@@ -1822,8 +2452,11 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>31380</v>
       </c>
@@ -1833,8 +2466,11 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>12178</v>
       </c>
@@ -1844,8 +2480,11 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>33278</v>
       </c>
@@ -1855,8 +2494,11 @@
       <c r="E24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>30887</v>
       </c>
@@ -1866,8 +2508,11 @@
       <c r="E25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>33024</v>
       </c>
@@ -1877,8 +2522,11 @@
       <c r="E26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>3460</v>
       </c>
@@ -1888,8 +2536,11 @@
       <c r="E27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>11837</v>
       </c>
@@ -1902,8 +2553,11 @@
       <c r="E28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="G28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>32333</v>
       </c>
@@ -1913,8 +2567,11 @@
       <c r="E29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="G29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>32335</v>
       </c>
@@ -1924,8 +2581,11 @@
       <c r="E30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="G30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>32334</v>
       </c>
@@ -1935,8 +2595,11 @@
       <c r="E31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="G31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>12476</v>
       </c>
@@ -1946,8 +2609,11 @@
       <c r="E32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="G32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>5424</v>
       </c>
@@ -1957,8 +2623,11 @@
       <c r="E33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="G33" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>410296</v>
       </c>
@@ -1971,8 +2640,11 @@
       <c r="E34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>410295</v>
       </c>
@@ -1985,8 +2657,11 @@
       <c r="E35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="G35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>410298</v>
       </c>
@@ -1999,8 +2674,11 @@
       <c r="E36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="G36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>410297</v>
       </c>
@@ -2013,8 +2691,11 @@
       <c r="E37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="G37" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>410303</v>
       </c>
@@ -2027,8 +2708,11 @@
       <c r="E38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="G38" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>410305</v>
       </c>
@@ -2041,8 +2725,11 @@
       <c r="E39" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="G39" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>410306</v>
       </c>
@@ -2055,8 +2742,11 @@
       <c r="E40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="G40" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>410304</v>
       </c>
@@ -2069,8 +2759,11 @@
       <c r="E41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="G41" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>410301</v>
       </c>
@@ -2083,8 +2776,11 @@
       <c r="E42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="G42" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>410300</v>
       </c>
@@ -2097,8 +2793,11 @@
       <c r="E43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="G43" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>2848</v>
       </c>
@@ -2108,8 +2807,11 @@
       <c r="E44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="G44" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>410308</v>
       </c>
@@ -2119,8 +2821,11 @@
       <c r="E45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="G45" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>410293</v>
       </c>
@@ -2130,8 +2835,11 @@
       <c r="E46" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="G46" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>32139</v>
       </c>
@@ -2141,8 +2849,11 @@
       <c r="E47" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="G47" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>2850</v>
       </c>
@@ -2152,8 +2863,11 @@
       <c r="E48" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="G48" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>4432</v>
       </c>
@@ -2166,8 +2880,11 @@
       <c r="E49" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="G49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>5432</v>
       </c>
@@ -2177,8 +2894,11 @@
       <c r="C50" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="G50" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>33021</v>
       </c>
@@ -2188,8 +2908,11 @@
       <c r="E51" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="G51" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>33022</v>
       </c>
@@ -2199,8 +2922,11 @@
       <c r="E52" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="G52" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>33023</v>
       </c>
@@ -2210,8 +2936,11 @@
       <c r="E53" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="G53" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>33017</v>
       </c>
@@ -2221,8 +2950,11 @@
       <c r="E54" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="G54" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>33016</v>
       </c>
@@ -2232,8 +2964,11 @@
       <c r="E55" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="G55" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>33018</v>
       </c>
@@ -2243,8 +2978,11 @@
       <c r="E56" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="G56" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>2961</v>
       </c>
@@ -2257,8 +2995,11 @@
       <c r="E57" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="G57" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>3139</v>
       </c>
@@ -2271,8 +3012,11 @@
       <c r="E58" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="G58" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>41057</v>
       </c>
@@ -2282,8 +3026,11 @@
       <c r="E59" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="G59" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>41059</v>
       </c>
@@ -2293,8 +3040,11 @@
       <c r="E60" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="G60" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>41060</v>
       </c>
@@ -2304,8 +3054,11 @@
       <c r="E61" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="G61" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>41062</v>
       </c>
@@ -2315,8 +3068,11 @@
       <c r="E62" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="G62" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>41065</v>
       </c>
@@ -2326,8 +3082,11 @@
       <c r="E63" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="G63" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>41066</v>
       </c>
@@ -2337,8 +3096,11 @@
       <c r="E64" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="G64" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>41071</v>
       </c>
@@ -2348,8 +3110,11 @@
       <c r="E65" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="G65" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>41074</v>
       </c>
@@ -2359,8 +3124,11 @@
       <c r="E66" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="G66" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>41075</v>
       </c>
@@ -2370,8 +3138,11 @@
       <c r="E67" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="G67" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>41067</v>
       </c>
@@ -2381,8 +3152,11 @@
       <c r="E68" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="G68" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>41070</v>
       </c>
@@ -2392,8 +3166,11 @@
       <c r="E69" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="G69" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>41069</v>
       </c>
@@ -2403,8 +3180,11 @@
       <c r="E70" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="G70" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>32133</v>
       </c>
@@ -2414,8 +3194,11 @@
       <c r="E71" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="G71" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>32134</v>
       </c>
@@ -2425,8 +3208,11 @@
       <c r="E72" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="G72" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>33025</v>
       </c>
@@ -2436,8 +3222,11 @@
       <c r="E73" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="G73" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>32332</v>
       </c>
@@ -2447,8 +3236,11 @@
       <c r="E74" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="G74" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>5508</v>
       </c>
@@ -2461,8 +3253,11 @@
       <c r="E75" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="G75" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>3459</v>
       </c>
@@ -2475,8 +3270,11 @@
       <c r="E76" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="G76" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>33039</v>
       </c>
@@ -2489,8 +3287,11 @@
       <c r="E77" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="G77" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>32288</v>
       </c>
@@ -2500,8 +3301,11 @@
       <c r="E78" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="G78" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>32291</v>
       </c>
@@ -2511,8 +3315,11 @@
       <c r="E79" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="G79" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>32295</v>
       </c>
@@ -2522,8 +3329,11 @@
       <c r="E80" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="G80" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>32294</v>
       </c>
@@ -2533,8 +3343,11 @@
       <c r="E81" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="G81" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>32293</v>
       </c>
@@ -2544,8 +3357,11 @@
       <c r="E82" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="G82" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>32289</v>
       </c>
@@ -2555,8 +3371,11 @@
       <c r="E83" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="G83" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>32298</v>
       </c>
@@ -2566,8 +3385,11 @@
       <c r="E84" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="G84" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>32300</v>
       </c>
@@ -2577,8 +3399,11 @@
       <c r="E85" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="G85" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>32299</v>
       </c>
@@ -2588,8 +3413,11 @@
       <c r="E86" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="G86" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>32297</v>
       </c>
@@ -2599,8 +3427,11 @@
       <c r="E87" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="G87" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>32338</v>
       </c>
@@ -2610,8 +3441,11 @@
       <c r="E88" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="G88" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>32339</v>
       </c>
@@ -2621,8 +3455,11 @@
       <c r="E89" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="G89" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>32337</v>
       </c>
@@ -2632,8 +3469,11 @@
       <c r="E90" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="G90" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>410224</v>
       </c>
@@ -2643,8 +3483,11 @@
       <c r="E91" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="G91" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>410225</v>
       </c>
@@ -2654,8 +3497,11 @@
       <c r="E92" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="G92" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>410247</v>
       </c>
@@ -2665,8 +3511,11 @@
       <c r="E93" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="G93" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>410238</v>
       </c>
@@ -2676,8 +3525,11 @@
       <c r="E94" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="G94" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>410226</v>
       </c>
@@ -2687,8 +3539,11 @@
       <c r="E95" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="G95" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>410234</v>
       </c>
@@ -2698,8 +3553,11 @@
       <c r="E96" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="G96" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>410236</v>
       </c>
@@ -2709,8 +3567,11 @@
       <c r="E97" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="G97" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>410249</v>
       </c>
@@ -2720,8 +3581,11 @@
       <c r="E98" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="G98" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>410228</v>
       </c>
@@ -2731,8 +3595,11 @@
       <c r="E99" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="G99" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>410229</v>
       </c>
@@ -2742,8 +3609,11 @@
       <c r="E100" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="G100" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>410230</v>
       </c>
@@ -2753,8 +3623,11 @@
       <c r="E101" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="G101" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>410231</v>
       </c>
@@ -2764,8 +3637,11 @@
       <c r="E102" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="G102" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>410233</v>
       </c>
@@ -2775,8 +3651,11 @@
       <c r="E103" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="G103" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>410220</v>
       </c>
@@ -2786,8 +3665,11 @@
       <c r="E104" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="G104" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>410222</v>
       </c>
@@ -2797,8 +3679,11 @@
       <c r="E105" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="G105" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>410232</v>
       </c>
@@ -2808,8 +3693,11 @@
       <c r="E106" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="G106" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>410248</v>
       </c>
@@ -2819,8 +3707,11 @@
       <c r="E107" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="G107" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>410369</v>
       </c>
@@ -2830,8 +3721,11 @@
       <c r="E108" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="G108" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>410371</v>
       </c>
@@ -2841,8 +3735,11 @@
       <c r="E109" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="G109" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>410367</v>
       </c>
@@ -2852,8 +3749,11 @@
       <c r="E110" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="G110" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>31048</v>
       </c>
@@ -2866,8 +3766,11 @@
       <c r="E111" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="G111" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>20195</v>
       </c>
@@ -2880,8 +3783,11 @@
       <c r="E112" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="G112" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>20196</v>
       </c>
@@ -2894,8 +3800,11 @@
       <c r="E113" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="G113" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>20194</v>
       </c>
@@ -2908,8 +3817,11 @@
       <c r="E114" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="G114" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>31050</v>
       </c>
@@ -2922,8 +3834,11 @@
       <c r="E115" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="G115" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>410246</v>
       </c>
@@ -2933,8 +3848,11 @@
       <c r="E116" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="G116" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>2847</v>
       </c>
@@ -2944,8 +3862,11 @@
       <c r="E117" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="G117" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>41077</v>
       </c>
@@ -2955,8 +3876,11 @@
       <c r="E118" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="G118" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>4433</v>
       </c>
@@ -2969,8 +3893,11 @@
       <c r="E119" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="G119" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>5357</v>
       </c>
@@ -2983,8 +3910,11 @@
       <c r="E120" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="G120" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>2959</v>
       </c>
@@ -2997,8 +3927,11 @@
       <c r="E121" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="G121" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>3214</v>
       </c>
@@ -3008,8 +3941,11 @@
       <c r="E122" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="G122" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>3610</v>
       </c>
@@ -3019,8 +3955,11 @@
       <c r="E123" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="G123" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>6916</v>
       </c>
@@ -3030,8 +3969,11 @@
       <c r="E124" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="G124" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>3208</v>
       </c>
@@ -3041,8 +3983,11 @@
       <c r="E125" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="G125" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>3226</v>
       </c>
@@ -3052,8 +3997,11 @@
       <c r="E126" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="G126" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>3221</v>
       </c>
@@ -3063,8 +4011,11 @@
       <c r="E127" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="G127" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>10997</v>
       </c>
@@ -3074,8 +4025,11 @@
       <c r="E128" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="G128" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129">
         <v>3564</v>
       </c>
@@ -3085,8 +4039,11 @@
       <c r="E129" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="G129" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130">
         <v>10998</v>
       </c>
@@ -3096,8 +4053,11 @@
       <c r="E130" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="G130" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131">
         <v>11133</v>
       </c>
@@ -3107,8 +4067,11 @@
       <c r="E131" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="G131" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132">
         <v>3224</v>
       </c>
@@ -3118,8 +4081,11 @@
       <c r="E132" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="G132" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133">
         <v>3575</v>
       </c>
@@ -3129,8 +4095,11 @@
       <c r="E133" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="G133" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134">
         <v>3213</v>
       </c>
@@ -3140,8 +4109,11 @@
       <c r="E134" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="G134" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135">
         <v>32188</v>
       </c>
@@ -3151,8 +4123,11 @@
       <c r="E135" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="G135" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136">
         <v>3079</v>
       </c>
@@ -3162,8 +4137,11 @@
       <c r="E136" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="G136" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137">
         <v>410166</v>
       </c>
@@ -3173,8 +4151,11 @@
       <c r="E137" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="G137" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138">
         <v>32189</v>
       </c>
@@ -3184,8 +4165,11 @@
       <c r="E138" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="G138" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139">
         <v>32639</v>
       </c>
@@ -3195,8 +4179,11 @@
       <c r="E139" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="G139" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140">
         <v>32571</v>
       </c>
@@ -3206,8 +4193,11 @@
       <c r="E140" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="G140" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141">
         <v>32576</v>
       </c>
@@ -3217,8 +4207,11 @@
       <c r="E141" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="G141" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142">
         <v>3514</v>
       </c>
@@ -3228,8 +4221,11 @@
       <c r="E142" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="G142" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143">
         <v>40015</v>
       </c>
@@ -3239,8 +4235,11 @@
       <c r="E143" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="G143" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144">
         <v>8314</v>
       </c>
@@ -3250,8 +4249,11 @@
       <c r="E144" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="G144" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145">
         <v>11924</v>
       </c>
@@ -3261,8 +4263,11 @@
       <c r="E145" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="G145" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146">
         <v>11923</v>
       </c>
@@ -3272,8 +4277,11 @@
       <c r="E146" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="G146" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147">
         <v>8347</v>
       </c>
@@ -3283,8 +4291,11 @@
       <c r="E147" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="G147" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148">
         <v>11925</v>
       </c>
@@ -3294,8 +4305,11 @@
       <c r="E148" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="G148" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149">
         <v>100950</v>
       </c>
@@ -3305,8 +4319,11 @@
       <c r="E149" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="G149" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150">
         <v>3288</v>
       </c>
@@ -3316,8 +4333,11 @@
       <c r="E150" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="G150" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151">
         <v>8316</v>
       </c>
@@ -3327,8 +4347,11 @@
       <c r="E151" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="G151" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152">
         <v>30059</v>
       </c>
@@ -3338,8 +4361,11 @@
       <c r="E152" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="G152" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153">
         <v>200125</v>
       </c>
@@ -3349,8 +4375,11 @@
       <c r="E153" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="G153" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154">
         <v>3647</v>
       </c>
@@ -3363,8 +4392,11 @@
       <c r="E154" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="G154" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155">
         <v>8306</v>
       </c>
@@ -3374,8 +4406,11 @@
       <c r="E155" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="G155" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156">
         <v>11936</v>
       </c>
@@ -3385,8 +4420,11 @@
       <c r="E156" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="G156" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157">
         <v>8315</v>
       </c>
@@ -3396,8 +4434,11 @@
       <c r="E157" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="G157" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158">
         <v>3232</v>
       </c>
@@ -3407,8 +4448,11 @@
       <c r="E158" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="G158" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159">
         <v>2928</v>
       </c>
@@ -3418,8 +4462,11 @@
       <c r="E159" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="G159" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160">
         <v>8265</v>
       </c>
@@ -3429,8 +4476,11 @@
       <c r="E160" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="G160" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161">
         <v>40013</v>
       </c>
@@ -3440,8 +4490,11 @@
       <c r="E161" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="G161" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162">
         <v>40014</v>
       </c>
@@ -3451,8 +4504,11 @@
       <c r="E162" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="G162" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163">
         <v>30774</v>
       </c>
@@ -3462,8 +4518,11 @@
       <c r="E163" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="G163" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164">
         <v>33686</v>
       </c>
@@ -3473,8 +4532,11 @@
       <c r="E164" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="G164" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165">
         <v>31556</v>
       </c>
@@ -3484,8 +4546,11 @@
       <c r="E165" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="G165" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166">
         <v>31554</v>
       </c>
@@ -3495,8 +4560,11 @@
       <c r="E166" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:5">
+      <c r="G166" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167">
         <v>31555</v>
       </c>
@@ -3506,8 +4574,11 @@
       <c r="E167" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:5">
+      <c r="G167" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168">
         <v>32455</v>
       </c>
@@ -3517,8 +4588,11 @@
       <c r="E168" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:5">
+      <c r="G168" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169">
         <v>41048</v>
       </c>
@@ -3528,8 +4602,11 @@
       <c r="E169" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="G169" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170">
         <v>31558</v>
       </c>
@@ -3539,8 +4616,11 @@
       <c r="E170" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:5">
+      <c r="G170" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171">
         <v>31557</v>
       </c>
@@ -3550,8 +4630,11 @@
       <c r="E171" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="G171" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172">
         <v>31559</v>
       </c>
@@ -3561,8 +4644,11 @@
       <c r="E172" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:5">
+      <c r="G172" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173">
         <v>31928</v>
       </c>
@@ -3572,8 +4658,11 @@
       <c r="E173" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:5">
+      <c r="G173" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174">
         <v>31930</v>
       </c>
@@ -3583,8 +4672,11 @@
       <c r="E174" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:5">
+      <c r="G174" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175">
         <v>31929</v>
       </c>
@@ -3594,8 +4686,11 @@
       <c r="E175" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="G175" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176">
         <v>31926</v>
       </c>
@@ -3605,8 +4700,11 @@
       <c r="E176" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="G176" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177">
         <v>31927</v>
       </c>
@@ -3616,8 +4714,11 @@
       <c r="E177" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="G177" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178">
         <v>31413</v>
       </c>
@@ -3627,8 +4728,11 @@
       <c r="E178" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="G178" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179">
         <v>31361</v>
       </c>
@@ -3638,8 +4742,11 @@
       <c r="E179" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="G179" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180">
         <v>20157</v>
       </c>
@@ -3649,8 +4756,11 @@
       <c r="E180" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="G180" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181">
         <v>31319</v>
       </c>
@@ -3660,8 +4770,11 @@
       <c r="E181" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:5">
+      <c r="G181" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182">
         <v>31338</v>
       </c>
@@ -3671,8 +4784,11 @@
       <c r="E182" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:5">
+      <c r="G182" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183">
         <v>31336</v>
       </c>
@@ -3682,8 +4798,11 @@
       <c r="E183" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:5">
+      <c r="G183" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184">
         <v>33997</v>
       </c>
@@ -3693,8 +4812,11 @@
       <c r="E184" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:5">
+      <c r="G184" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185">
         <v>31332</v>
       </c>
@@ -3704,8 +4826,11 @@
       <c r="E185" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:5">
+      <c r="G185" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186">
         <v>31333</v>
       </c>
@@ -3715,8 +4840,11 @@
       <c r="E186" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:5">
+      <c r="G186" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187">
         <v>31339</v>
       </c>
@@ -3726,8 +4854,11 @@
       <c r="E187" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:5">
+      <c r="G187" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188">
         <v>31337</v>
       </c>
@@ -3737,8 +4868,11 @@
       <c r="E188" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:5">
+      <c r="G188" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189">
         <v>31334</v>
       </c>
@@ -3748,8 +4882,11 @@
       <c r="E189" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:5">
+      <c r="G189" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190">
         <v>31320</v>
       </c>
@@ -3759,8 +4896,11 @@
       <c r="E190" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:5">
+      <c r="G190" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191">
         <v>410023</v>
       </c>
@@ -3770,8 +4910,11 @@
       <c r="E191" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:5">
+      <c r="G191" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192">
         <v>31872</v>
       </c>
@@ -3780,6 +4923,9 @@
       </c>
       <c r="E192" s="1">
         <v>1</v>
+      </c>
+      <c r="G192" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>
